--- a/biology/Zoologie/Afrotyphlops_kaimosae/Afrotyphlops_kaimosae.xlsx
+++ b/biology/Zoologie/Afrotyphlops_kaimosae/Afrotyphlops_kaimosae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrotyphlops kaimosae est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrotyphlops kaimosae est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Kenya[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Kenya.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 215 mm dont 4 mm de queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 215 mm dont 4 mm de queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la forêt Kaimosi[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la forêt Kaimosi.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loveridge, 1935 : Scientific results of an expedition to rain forest regions in eastern Africa. I. New reptiles and amphibians from East Africa. Bulletin of the Museum of Comparative Zoology. Cambridge, Massachusetts, vol. 79, p. 3-19 (texte intégral).</t>
         </is>
